--- a/biology/Médecine/Santé_en_Angola/Santé_en_Angola.xlsx
+++ b/biology/Médecine/Santé_en_Angola/Santé_en_Angola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Angola</t>
+          <t>Santé_en_Angola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article évoque les problèmes de santé en Angola.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Angola</t>
+          <t>Santé_en_Angola</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Paludisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le paludisme est responsable du décès de 40 enfants de moins de 5 ans par jour.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Angola</t>
+          <t>Santé_en_Angola</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Accès à l'eau potable</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D’après un rapport de l’UNICEF paru au mois de septembre 2008, alors que le pays a connu une croissance économique de 24 % en 2007, « seuls 31 % des enfants angolais ont un accès adéquat à des installations sanitaires correctes » . Selon l’organisme humanitaire, cela provoque l’apparition fréquente d’épidémies de choléra.
 L'Angola s'est donc doté d'un ambitieux programme "l'eau pour tous" qui vise à donner accès à l'eau potable à 80 % de la population d'ici 2012.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Angola</t>
+          <t>Santé_en_Angola</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Fièvre de Marbourg</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Angola connaît une épidémie de fièvre hémorragique de Marbourg qui a fait 280 morts (au 2 mai 2005), principalement dans la province d’Uige.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_en_Angola</t>
+          <t>Santé_en_Angola</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Choléra</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le choléra est toujours très présent en Angola, y compris dans la capitale Luanda, surtout en saison des pluies, en raison de la difficulté d'accès à l'eau potable.
 </t>
